--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1577115.632290418</v>
+        <v>-1548362.663842188</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10729795.44884831</v>
+        <v>10751951.23728515</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -677,7 +677,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>67.939666491894</v>
+        <v>133.643899295032</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>111.8406959033557</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>215.2039099720363</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>76.50447432473709</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6845987943127</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>225.5873714250132</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.85450227885472</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>56.48798094002115</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>420.9104351375283</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>220.1767649846776</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>120.9442215214704</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>168.7843377880176</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800322</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>389.8694240544432</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>52.51170991984834</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>240.0854409714249</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948858</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>63.51633119328171</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561542</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>126.7541180064922</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>234.6314620976453</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>108.0570408708226</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>72.13424985736003</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>35.20092700998597</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>20.08472694640569</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>73.01514676193455</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>159.6574681744381</v>
       </c>
     </row>
     <row r="29">
@@ -2953,10 +2953,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>28.46824604904392</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3004,7 +3004,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>52.79556056590986</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3044,7 +3044,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277814</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934433</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3244,7 +3244,7 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W34" t="n">
         <v>253.070430030824</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3752,7 +3752,7 @@
         <v>407.353044956137</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242216</v>
       </c>
       <c r="H41" t="n">
         <v>270.0031426724685</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245973</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>809.9024016719685</v>
+        <v>1238.90086530756</v>
       </c>
       <c r="C2" t="n">
-        <v>809.9024016719685</v>
+        <v>810.3191910448285</v>
       </c>
       <c r="D2" t="n">
-        <v>778.0330208868171</v>
+        <v>778.4498102596771</v>
       </c>
       <c r="E2" t="n">
-        <v>748.2986800855164</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4331,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1628.557504331029</v>
+        <v>1478.537718592505</v>
       </c>
       <c r="U2" t="n">
-        <v>1369.335201648046</v>
+        <v>1478.537718592505</v>
       </c>
       <c r="V2" t="n">
-        <v>1256.364801745667</v>
+        <v>1478.537718592505</v>
       </c>
       <c r="W2" t="n">
-        <v>1255.549751197104</v>
+        <v>1478.537718592505</v>
       </c>
       <c r="X2" t="n">
-        <v>1240.447691816819</v>
+        <v>1478.537718592505</v>
       </c>
       <c r="Y2" t="n">
-        <v>1236.201972156876</v>
+        <v>1261.160031752064</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4410,16 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.5053801183834</v>
+        <v>505.6610317276996</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>505.6610317276996</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7830389292222</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1567.017802830512</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1567.017802830512</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X4" t="n">
-        <v>625.7436695232623</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.3239988373705</v>
+        <v>505.6610317276996</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1864.764136151674</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1426.621663335097</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1198.755631592659</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1169.021290791359</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.1538612005666</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7560298238304</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704667</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704667</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199645</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.149285739872</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.149285739872</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.149285739872</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.149285739872</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1735.644492169574</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2362.139698599276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599276</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352333</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352333</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2311.226536225372</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2311.226536225372</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2311.226536225372</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>2310.411485676809</v>
       </c>
       <c r="X5" t="n">
-        <v>251.3462593216046</v>
+        <v>2295.309426296524</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>1887.023302596177</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1374.225746864817</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>1267.76928570146</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1172.678996848013</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1078.558582174967</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>995.1747437911283</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>909.7896540573122</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>868.0540018735246</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>894.1176750339822</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>1218.676000000195</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1218.676000000195</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1218.676000000195</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1218.676000000195</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1246.886840196216</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1246.886840196216</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1873.382046625918</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2414.120985257994</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352333</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2467.838325800717</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2337.659682131318</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2161.323135131287</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1962.205617193286</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1776.88286292648</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1622.01542716536</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1495.529647944581</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>791.5310493879807</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>791.5310493879807</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>625.6530565895034</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>455.8950528402406</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>279.1879988019968</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>279.1879988019968</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923713</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704667</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.2055604317365</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.9640150028721</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>830.1738967708332</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1153.666042134233</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1595.924845291878</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2015.594094517659</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488001</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352333</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057705</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355702</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2293.57600674962</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2015.143006002725</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1728.187497873156</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1456.161093459447</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1210.76933879286</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>983.3496681069678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.6683834787607</v>
+        <v>978.7890572316419</v>
       </c>
       <c r="C8" t="n">
-        <v>516.086709216029</v>
+        <v>540.6465844150651</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1391.130783552459</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1391.130783552459</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1390.315733003896</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X8" t="n">
-        <v>971.173269583207</v>
+        <v>1812.237236626462</v>
       </c>
       <c r="Y8" t="n">
-        <v>966.9275499232645</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>918.5584811903379</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>745.9967696735629</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>580.1187768750856</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>410.3607731258228</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>288.1948928011053</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1397.332608038895</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1110.377099909325</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1110.377099909325</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1110.377099909325</v>
+        <v>1235.618046634173</v>
       </c>
       <c r="Y10" t="n">
-        <v>1110.377099909325</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1669.496312924904</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1231.353840108328</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1231.353840108328</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>797.5790952666227</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>369.7116656758305</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.7116656758305</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904675</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618676</v>
+        <v>205.2000859692958</v>
       </c>
       <c r="K11" t="n">
-        <v>80.16472174618676</v>
+        <v>1039.550377927474</v>
       </c>
       <c r="L11" t="n">
-        <v>1043.979557520909</v>
+        <v>2114.610344180333</v>
       </c>
       <c r="M11" t="n">
-        <v>2036.01798912997</v>
+        <v>3271.658179390884</v>
       </c>
       <c r="N11" t="n">
-        <v>3028.056420739031</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="O11" t="n">
-        <v>4008.236087309338</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="P11" t="n">
-        <v>4008.236087309338</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309338</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309338</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493175</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3924.584213493175</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.361910810191</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3302.744960744018</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2897.889506155051</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2504.082007110159</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2095.795883409812</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374796</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741218</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206751</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476288</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637904</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299743</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066444</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728567</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>430.7867198728567</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>430.7867198728567</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>430.7867198728567</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>430.7867198728567</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>430.7867198728567</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.77040200398</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991419</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380219</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>993.6316073838957</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C13" t="n">
-        <v>821.0698958671206</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D13" t="n">
-        <v>655.1919030686433</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>485.4338993193807</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>308.7268452811369</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>308.7268452811369</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715114</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108766</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820122</v>
+        <v>463.5989800066067</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499733</v>
+        <v>881.8088617745677</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955481</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113125</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338907</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309249</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2473.041003752036</v>
       </c>
       <c r="U13" t="n">
-        <v>2217.24356399864</v>
+        <v>2194.608003005141</v>
       </c>
       <c r="V13" t="n">
-        <v>1930.288055869071</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W13" t="n">
-        <v>1658.261651455362</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X13" t="n">
-        <v>1412.869896788775</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y13" t="n">
-        <v>1185.450226102883</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
@@ -5273,55 +5273,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5346,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5455,31 +5455,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878954</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2228.223903459162</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1941.268395329592</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1669.241990915884</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5510,55 +5510,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5583,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5701,22 +5701,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1994.290572595111</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009658</v>
@@ -5741,37 +5741,37 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5786,13 +5786,13 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136698</v>
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>927.0677766831641</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>754.506065166389</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>588.6280723679117</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5938,22 +5938,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2429.112734044803</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2150.679733297909</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.724225168339</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1591.697820754631</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X22" t="n">
-        <v>1346.306066088043</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.886395402151</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,37 +5999,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
         <v>842.8792965674086</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2683.3639582443</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
         <v>1654.847790009657</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,43 +6230,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4584.153287715592</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4584.153287715592</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
         <v>2955.199618136697</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805145</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312517</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930079</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
-        <v>264.6734629930079</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6427,7 +6427,7 @@
         <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6464,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>4875.533979193861</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>4875.533979193861</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>473.3149733731391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>296.6079193348953</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>131.016644360723</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,43 +6707,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886287</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666409</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412733</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799771</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6862,7 +6862,7 @@
         <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>930.0289214806459</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6871,22 +6871,22 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2699.647500885578</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2470.167761876909</v>
       </c>
       <c r="U34" t="n">
         <v>2208.134468542891</v>
@@ -6923,7 +6923,7 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
@@ -6935,34 +6935,34 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>531.9487292598677</v>
+        <v>444.7825334645028</v>
       </c>
       <c r="K35" t="n">
-        <v>1366.299021218046</v>
+        <v>1279.132825422681</v>
       </c>
       <c r="L35" t="n">
-        <v>1366.299021218046</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M35" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="N35" t="n">
-        <v>2523.346856428596</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O35" t="n">
-        <v>3503.526522998903</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P35" t="n">
-        <v>4331.836397832299</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T35" t="n">
         <v>4607.415497673521</v>
@@ -6977,7 +6977,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7011,31 +7011,31 @@
         <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>1296.291537768318</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
         <v>1760.806465154627</v>
@@ -7072,25 +7072,25 @@
         <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936676</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7138,7 +7138,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7193,16 +7193,16 @@
         <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
         <v>4364.592902403413</v>
@@ -7211,7 +7211,7 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936681</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,34 +7348,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290616</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7430,28 +7430,28 @@
         <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7558,13 +7558,13 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7667,7 +7667,7 @@
         <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790891</v>
@@ -7792,13 +7792,13 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581783</v>
@@ -7807,10 +7807,10 @@
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7979,25 +7979,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,19 +8058,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>131.4804315655613</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>629.5643666867749</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380833</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380833</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,25 +8295,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>28.49579817779909</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380833</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,16 +8377,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>326.7597427913133</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>103.9790360591073</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>973.5503391663866</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1002.059021827334</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827334</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158829</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,22 +9000,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>263.087760665012</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9878,7 +9878,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>363.3683445154875</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10112,7 +10112,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.04441372935707</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>438.7697228121716</v>
+        <v>350.723060392611</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10659,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9268883637978</v>
+        <v>84.22265556065973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>25.08161473203916</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>223.1369608195774</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.00051207684891</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>212.132339546144</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>63.14631452530499</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.6746782719261</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>197.1718905122113</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>222.853110173516</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>65.48800580459468</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>65.48800580459468</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>844774.3838176479</v>
+        <v>703993.3087351065</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>921435.957391281</v>
+        <v>934267.1019240736</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>921435.957391281</v>
+        <v>936401.7598604818</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796109.0413536646</v>
+        <v>949948.2529048916</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949948.2529048917</v>
+        <v>949948.2529048916</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>949948.2529048914</v>
+        <v>949948.2529048916</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>949948.2529048914</v>
+        <v>949948.2529048917</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48968.57601488127</v>
+        <v>40436.38964624239</v>
       </c>
       <c r="C2" t="n">
         <v>53614.73198904085</v>
@@ -26320,25 +26320,25 @@
         <v>53614.73198904085</v>
       </c>
       <c r="E2" t="n">
-        <v>44153.57204509636</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="F2" t="n">
-        <v>52685.75841373525</v>
+        <v>52685.75841373522</v>
       </c>
       <c r="G2" t="n">
-        <v>52685.75841373525</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="H2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="I2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="J2" t="n">
         <v>52685.75841373522</v>
       </c>
       <c r="K2" t="n">
-        <v>52685.75841373524</v>
+        <v>52685.75841373523</v>
       </c>
       <c r="L2" t="n">
         <v>53614.73198904088</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246162</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106479</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725242</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471869</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338161</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099789</v>
+        <v>21768.74196143571</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978833</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341196</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179442.2442618198</v>
+        <v>130743.3336435127</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277518</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68250.85363567082</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>86781.92928567606</v>
+        <v>86781.92928567612</v>
       </c>
       <c r="M4" t="n">
-        <v>94325.77438500366</v>
+        <v>94325.77438500368</v>
       </c>
       <c r="N4" t="n">
         <v>94325.77438500366</v>
       </c>
       <c r="O4" t="n">
-        <v>94325.77438500362</v>
+        <v>94325.77438500368</v>
       </c>
       <c r="P4" t="n">
-        <v>94325.77438500365</v>
+        <v>94325.77438500366</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295546</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710193</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
         <v>75515.6147260897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-332089.7570438707</v>
+        <v>-292252.4913527725</v>
       </c>
       <c r="C6" t="n">
-        <v>-211771.0289900482</v>
+        <v>-256925.7427341281</v>
       </c>
       <c r="D6" t="n">
-        <v>-211771.0289900482</v>
+        <v>-196637.1840333401</v>
       </c>
       <c r="E6" t="n">
-        <v>-257529.8401902005</v>
+        <v>-288850.3852215325</v>
       </c>
       <c r="F6" t="n">
-        <v>-185610.9573658188</v>
+        <v>-106495.2760004827</v>
       </c>
       <c r="G6" t="n">
-        <v>-106472.0516611001</v>
+        <v>-106495.2760004828</v>
       </c>
       <c r="H6" t="n">
-        <v>-106472.0516611001</v>
+        <v>-106495.2760004827</v>
       </c>
       <c r="I6" t="n">
-        <v>-106472.0516611001</v>
+        <v>-106495.2760004828</v>
       </c>
       <c r="J6" t="n">
-        <v>-217486.5170060903</v>
+        <v>-217509.741345473</v>
       </c>
       <c r="K6" t="n">
-        <v>-106472.0516611001</v>
+        <v>-160163.6030638644</v>
       </c>
       <c r="L6" t="n">
-        <v>-125238.9241058937</v>
+        <v>-134019.0977963316</v>
       </c>
       <c r="M6" t="n">
-        <v>-245585.0785199358</v>
+        <v>-253804.3578599046</v>
       </c>
       <c r="N6" t="n">
-        <v>-183875.8573954645</v>
+        <v>-116226.6571220525</v>
       </c>
       <c r="O6" t="n">
+        <v>-116226.6571220526</v>
+      </c>
+      <c r="P6" t="n">
         <v>-116226.6571220525</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-116226.6571220524</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874739</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380833</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827334</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.527583317979</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977367</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072301</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574108</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317979</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977367</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702081</v>
+        <v>552.0685893398665</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574108</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317979</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977367</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072301</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574108</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>247.150084662156</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>188.9993524913068</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>91.55594938703302</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27552,10 +27552,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>205.9633155522867</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>329.3487601844884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>186.9326710173081</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1.126139642530347</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>36.45331467147571</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>53.99576197639098</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>74.15349933190407</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.642177326433524e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28333,10 +28333,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-4.113950559524804e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-4.113950559524804e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.412520940568662e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>16.23571033874739</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874714</v>
       </c>
       <c r="H41" t="n">
         <v>16.23571033874739</v>
@@ -30526,7 +30526,7 @@
         <v>16.23571033874739</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874583</v>
+        <v>16.23571033874739</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,19 +34778,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>131.4804315655613</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>629.5643666867749</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380833</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380833</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>28.49579817779909</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380833</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,22 +35091,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>326.7597427913133</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>103.9790360591073</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>973.5503391663866</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1002.059021827334</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827334</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158829</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132075</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960982</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35823,7 +35823,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821571</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>263.087760665012</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>289.0667057209139</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36598,7 +36598,7 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36607,13 +36607,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>363.3683445154875</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36832,25 +36832,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.04441372935707</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37233,19 +37233,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>438.7697228121716</v>
+        <v>350.723060392611</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
         <v>186.1274021209006</v>
@@ -37798,10 +37798,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>463.0908366609701</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -38035,10 +38035,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348442</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
         <v>440.1440428900419</v>
